--- a/data/stat2018-07-11.xlsx
+++ b/data/stat2018-07-11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>validtime</t>
   </si>
@@ -165,69 +165,6 @@
     <t>wdir</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>66</t>
   </si>
   <si>
@@ -496,6 +433,30 @@
   </si>
   <si>
     <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
   </si>
 </sst>
 </file>
@@ -575,19 +536,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>43291.125</v>
+        <v>43292.125</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.6606044758099765</v>
+        <v>-0.20043442444183662</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.716186060703633</v>
+        <v>-3.407102575329552</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.682468673876137</v>
+        <v>1.2049807027542858</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.416051962810833</v>
+        <v>-0.11542512398016362</v>
       </c>
     </row>
     <row r="3">
@@ -595,19 +556,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="n" s="2">
-        <v>43291.25</v>
+        <v>43292.25</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.3157786565912035</v>
+        <v>0.7374708321727628</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.944982160202741</v>
+        <v>-0.5172057466836961</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.711585181477038</v>
+        <v>2.3979458657782464</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.426200529930476</v>
+        <v>0.6967225873869846</v>
       </c>
     </row>
     <row r="4">
@@ -615,19 +576,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="2">
-        <v>43291.375</v>
+        <v>43292.375</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.104290787905622</v>
+        <v>1.3904441799447098</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.168135112990269</v>
+        <v>0.19121844555267448</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.820892641589235</v>
+        <v>3.795368801542331</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.213413811948872</v>
+        <v>1.3251775530875811</v>
       </c>
     </row>
     <row r="5">
@@ -635,19 +596,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="n" s="2">
-        <v>43291.5</v>
+        <v>43292.5</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.072581607289445</v>
+        <v>0.9187015847724779</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.468867518319504</v>
+        <v>-0.06945905397946267</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.8725743548536795</v>
+        <v>3.3568118904161084</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.735713912069861</v>
+        <v>0.8172202354513317</v>
       </c>
     </row>
     <row r="6">
@@ -655,19 +616,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="n" s="2">
-        <v>43291.625</v>
+        <v>43292.625</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.540677095224686</v>
+        <v>0.19040605833622742</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.320130824401984</v>
+        <v>-0.3455724010769427</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.4856150272708453</v>
+        <v>1.7269245897806218</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.2032295651477245</v>
+        <v>0.0067527584991970285</v>
       </c>
     </row>
     <row r="7">
@@ -675,19 +636,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="n" s="2">
-        <v>43291.75</v>
+        <v>43292.75</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.641474429414834</v>
+        <v>-0.18967817663978723</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.291524791374357</v>
+        <v>-0.7952268700413722</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.914719933689689</v>
+        <v>0.7773606685492914</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.106369198171493</v>
+        <v>-0.1783391989982816</v>
       </c>
     </row>
     <row r="8">
@@ -695,19 +656,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="n" s="2">
-        <v>43291.875</v>
+        <v>43292.875</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.1062398401599878</v>
+        <v>0.033723881543212535</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.171301235383373</v>
+        <v>-0.6261662513148428</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7342071374302035</v>
+        <v>1.1718901325547781</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.6068468199164516</v>
+        <v>-0.02915166160727524</v>
       </c>
     </row>
     <row r="9">
@@ -715,19 +676,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="n" s="2">
-        <v>43292.0</v>
+        <v>43293.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6006441836126419</v>
+        <v>1.4087704881412906</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.419873750599212</v>
+        <v>0.23350916161473745</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09791970365075191</v>
+        <v>3.0899556407176894</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.25124092017462607</v>
+        <v>1.414882769231121</v>
       </c>
     </row>
     <row r="10">
@@ -735,19 +696,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="n" s="2">
-        <v>43292.125</v>
+        <v>43293.125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4884270929339838</v>
+        <v>4.141078485469406</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.4739286941049037</v>
+        <v>2.424712604034852</v>
       </c>
       <c r="E10" t="n">
-        <v>1.4385519938140514</v>
+        <v>5.98858362211656</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6388462014400642</v>
+        <v>4.162227801174549</v>
       </c>
     </row>
     <row r="11">
@@ -755,19 +716,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="n" s="2">
-        <v>43292.25</v>
+        <v>43293.25</v>
       </c>
       <c r="C11" t="n">
-        <v>1.947899967634035</v>
+        <v>6.5606062852511196</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.0361083192525233</v>
+        <v>4.796113697283794</v>
       </c>
       <c r="E11" t="n">
-        <v>3.6650563640399882</v>
+        <v>8.999208643258378</v>
       </c>
       <c r="F11" t="n">
-        <v>1.9992811431588997</v>
+        <v>6.471016085219866</v>
       </c>
     </row>
     <row r="12">
@@ -775,19 +736,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="n" s="2">
-        <v>43292.375</v>
+        <v>43293.375</v>
       </c>
       <c r="C12" t="n">
-        <v>2.5089787980999305</v>
+        <v>6.7955209083909915</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2853431958318261</v>
+        <v>4.988748410730345</v>
       </c>
       <c r="E12" t="n">
-        <v>4.54295041220059</v>
+        <v>9.182769916093102</v>
       </c>
       <c r="F12" t="n">
-        <v>2.584961314294721</v>
+        <v>6.898345329515616</v>
       </c>
     </row>
     <row r="13">
@@ -795,19 +756,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="n" s="2">
-        <v>43292.5</v>
+        <v>43293.5</v>
       </c>
       <c r="C13" t="n">
-        <v>1.6962923447554337</v>
+        <v>4.965975295610804</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.559652339939516</v>
+        <v>3.029351736689019</v>
       </c>
       <c r="E13" t="n">
-        <v>3.7586415519503364</v>
+        <v>7.917620903603341</v>
       </c>
       <c r="F13" t="n">
-        <v>1.8829015121452852</v>
+        <v>4.495380350333984</v>
       </c>
     </row>
     <row r="14">
@@ -815,19 +776,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="n" s="2">
-        <v>43292.625</v>
+        <v>43293.625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.595418564920636</v>
+        <v>2.7396413012976764</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.1774247128169608</v>
+        <v>1.1537588901230202</v>
       </c>
       <c r="E14" t="n">
-        <v>2.313831051476292</v>
+        <v>5.8466924270323695</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5398386627850391</v>
+        <v>2.5010486934637157</v>
       </c>
     </row>
     <row r="15">
@@ -835,19 +796,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="n" s="2">
-        <v>43292.75</v>
+        <v>43293.75</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0631072540467022</v>
+        <v>1.4408484332266622</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.4634564789898525</v>
+        <v>0.054343723107387096</v>
       </c>
       <c r="E15" t="n">
-        <v>1.9780519067551197</v>
+        <v>3.6670554546198364</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.011228047970646415</v>
+        <v>1.1150405514090074</v>
       </c>
     </row>
     <row r="16">
@@ -855,19 +816,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="n" s="2">
-        <v>43292.875</v>
+        <v>43293.875</v>
       </c>
       <c r="C16" t="n">
-        <v>0.30116915716537296</v>
+        <v>1.6913880238567434</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.5545622573615279</v>
+        <v>-0.07298048748897551</v>
       </c>
       <c r="E16" t="n">
-        <v>2.4617158914949604</v>
+        <v>3.6374603080648362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.20972467831085373</v>
+        <v>1.6777285198938718</v>
       </c>
     </row>
     <row r="17">
@@ -875,19 +836,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="n" s="2">
-        <v>43293.0</v>
+        <v>43294.0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.7462719072891844</v>
+        <v>3.0796667144049454</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.641113540426123</v>
+        <v>0.5895086778340446</v>
       </c>
       <c r="E17" t="n">
-        <v>4.199600394922909</v>
+        <v>4.758988912506336</v>
       </c>
       <c r="F17" t="n">
-        <v>1.6069947375615206</v>
+        <v>3.4198780607309516</v>
       </c>
     </row>
     <row r="18">
@@ -895,19 +856,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="n" s="2">
-        <v>43293.125</v>
+        <v>43294.125</v>
       </c>
       <c r="C18" t="n">
-        <v>4.269834429950958</v>
+        <v>5.197818083018077</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2751176585622516</v>
+        <v>2.2206526930999253</v>
       </c>
       <c r="E18" t="n">
-        <v>6.629402499289262</v>
+        <v>7.048915964482894</v>
       </c>
       <c r="F18" t="n">
-        <v>4.4706860448767065</v>
+        <v>5.414371381272139</v>
       </c>
     </row>
     <row r="19">
@@ -915,19 +876,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="n" s="2">
-        <v>43293.25</v>
+        <v>43294.25</v>
       </c>
       <c r="C19" t="n">
-        <v>6.223688519482359</v>
+        <v>6.741329099564935</v>
       </c>
       <c r="D19" t="n">
-        <v>1.3887828995283278</v>
+        <v>3.9377850826334573</v>
       </c>
       <c r="E19" t="n">
-        <v>8.599532132449434</v>
+        <v>9.739457601229816</v>
       </c>
       <c r="F19" t="n">
-        <v>6.796970793716741</v>
+        <v>6.911462506064697</v>
       </c>
     </row>
     <row r="20">
@@ -935,19 +896,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="n" s="2">
-        <v>43293.375</v>
+        <v>43294.375</v>
       </c>
       <c r="C20" t="n">
-        <v>6.447729724951375</v>
+        <v>5.558919908848381</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6534425405547066</v>
+        <v>3.6673313168013553</v>
       </c>
       <c r="E20" t="n">
-        <v>9.120709963677337</v>
+        <v>9.336189738974706</v>
       </c>
       <c r="F20" t="n">
-        <v>6.979138195480768</v>
+        <v>5.189008956903309</v>
       </c>
     </row>
     <row r="21">
@@ -955,19 +916,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="n" s="2">
-        <v>43293.5</v>
+        <v>43294.5</v>
       </c>
       <c r="C21" t="n">
-        <v>4.925071123818717</v>
+        <v>2.2765155946771283</v>
       </c>
       <c r="D21" t="n">
-        <v>0.46916042823522186</v>
+        <v>0.886128731542757</v>
       </c>
       <c r="E21" t="n">
-        <v>7.822189284890997</v>
+        <v>5.259428198525245</v>
       </c>
       <c r="F21" t="n">
-        <v>5.2257522387406246</v>
+        <v>2.0814944135951965</v>
       </c>
     </row>
     <row r="22">
@@ -975,19 +936,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="n" s="2">
-        <v>43293.625</v>
+        <v>43294.625</v>
       </c>
       <c r="C22" t="n">
-        <v>3.101769863091651</v>
+        <v>-0.022291905498554154</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4176024863289792</v>
+        <v>-0.809095908975392</v>
       </c>
       <c r="E22" t="n">
-        <v>5.6283536042304165</v>
+        <v>0.9144679177984392</v>
       </c>
       <c r="F22" t="n">
-        <v>3.355170942367612</v>
+        <v>-0.10465980189648076</v>
       </c>
     </row>
     <row r="23">
@@ -995,19 +956,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="n" s="2">
-        <v>43293.75</v>
+        <v>43294.75</v>
       </c>
       <c r="C23" t="n">
-        <v>2.1099570150904623</v>
+        <v>-1.2178032570924953</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.6463620591759978</v>
+        <v>-3.416817862664473</v>
       </c>
       <c r="E23" t="n">
-        <v>4.360749703518385</v>
+        <v>-0.09416741776793726</v>
       </c>
       <c r="F23" t="n">
-        <v>2.4157116167209653</v>
+        <v>-1.0745623577665788</v>
       </c>
     </row>
     <row r="24">
@@ -1015,19 +976,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="n" s="2">
-        <v>43293.875</v>
+        <v>43294.875</v>
       </c>
       <c r="C24" t="n">
-        <v>2.593394663348201</v>
+        <v>-1.3994824668188302</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.4877580648015338</v>
+        <v>-4.140453433077533</v>
       </c>
       <c r="E24" t="n">
-        <v>5.061158174699297</v>
+        <v>-0.10631619100961313</v>
       </c>
       <c r="F24" t="n">
-        <v>2.638558936162912</v>
+        <v>-1.2504153005214036</v>
       </c>
     </row>
     <row r="25">
@@ -1035,19 +996,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="n" s="2">
-        <v>43294.0</v>
+        <v>43295.0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.327660660223833</v>
+        <v>-0.2506422010760102</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3238170371247481</v>
+        <v>-2.485180794941968</v>
       </c>
       <c r="E25" t="n">
-        <v>7.306844865641586</v>
+        <v>0.963803380768486</v>
       </c>
       <c r="F25" t="n">
-        <v>4.199904880485134</v>
+        <v>-0.11783541813675276</v>
       </c>
     </row>
     <row r="26">
@@ -1055,19 +1016,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="n" s="2">
-        <v>43294.125</v>
+        <v>43295.125</v>
       </c>
       <c r="C26" t="n">
-        <v>6.554270693406528</v>
+        <v>1.4577187259577478</v>
       </c>
       <c r="D26" t="n">
-        <v>0.513506128344971</v>
+        <v>-0.4765588655870393</v>
       </c>
       <c r="E26" t="n">
-        <v>9.749821673384469</v>
+        <v>4.269411781398776</v>
       </c>
       <c r="F26" t="n">
-        <v>7.011616561091878</v>
+        <v>1.139859423750814</v>
       </c>
     </row>
     <row r="27">
@@ -1075,19 +1036,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="n" s="2">
-        <v>43294.25</v>
+        <v>43295.25</v>
       </c>
       <c r="C27" t="n">
-        <v>7.786086079691028</v>
+        <v>3.0241445522136323</v>
       </c>
       <c r="D27" t="n">
-        <v>1.3616075733104473</v>
+        <v>-0.07055022833116065</v>
       </c>
       <c r="E27" t="n">
-        <v>10.535953780727944</v>
+        <v>6.999644038135105</v>
       </c>
       <c r="F27" t="n">
-        <v>8.458845714605486</v>
+        <v>3.0540864632835</v>
       </c>
     </row>
     <row r="28">
@@ -1095,19 +1056,19 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="2">
-        <v>43294.375</v>
+        <v>43295.375</v>
       </c>
       <c r="C28" t="n">
-        <v>6.227869270895315</v>
+        <v>2.6295798364187792</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6379559251739245</v>
+        <v>-0.28330878758250483</v>
       </c>
       <c r="E28" t="n">
-        <v>9.382618344976002</v>
+        <v>6.7664148290950825</v>
       </c>
       <c r="F28" t="n">
-        <v>6.807841104163961</v>
+        <v>2.535330388289108</v>
       </c>
     </row>
     <row r="29">
@@ -1115,19 +1076,19 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="2">
-        <v>43294.5</v>
+        <v>43295.5</v>
       </c>
       <c r="C29" t="n">
-        <v>2.8476738051595487</v>
+        <v>0.9035189565806645</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4493088764335918</v>
+        <v>-1.5775227013656083</v>
       </c>
       <c r="E29" t="n">
-        <v>6.143324130482715</v>
+        <v>3.8118054790833913</v>
       </c>
       <c r="F29" t="n">
-        <v>2.6149749201228336</v>
+        <v>0.8176023750111913</v>
       </c>
     </row>
     <row r="30">
@@ -1135,19 +1096,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="2">
-        <v>43294.625</v>
+        <v>43295.625</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26109577871748685</v>
+        <v>-0.2798176567266678</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.0230360788399175</v>
+        <v>-3.5098221786897406</v>
       </c>
       <c r="E30" t="n">
-        <v>3.2238942527308643</v>
+        <v>1.9069144693857694</v>
       </c>
       <c r="F30" t="n">
-        <v>0.007412889744793802</v>
+        <v>-0.14306589309414297</v>
       </c>
     </row>
     <row r="31">
@@ -1155,19 +1116,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="2">
-        <v>43294.75</v>
+        <v>43295.75</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9655787722705355</v>
+        <v>-0.5854576713356463</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.161444853866101</v>
+        <v>-3.869889732672095</v>
       </c>
       <c r="E31" t="n">
-        <v>1.4275125569971476</v>
+        <v>1.2709636243269138</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.0313666500121246</v>
+        <v>-0.5998545046043446</v>
       </c>
     </row>
     <row r="32">
@@ -1175,19 +1136,19 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="2">
-        <v>43294.875</v>
+        <v>43295.875</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.9509287464820679</v>
+        <v>0.3121016554142142</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.2043123245210055</v>
+        <v>-2.546322544864439</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8526307736817763</v>
+        <v>2.1865688059621924</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47831222641957283</v>
+        <v>-0.09023344041104411</v>
       </c>
     </row>
     <row r="33">
@@ -1195,19 +1156,19 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="2">
-        <v>43295.0</v>
+        <v>43296.0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.051465898562117286</v>
+        <v>2.2577646316504034</v>
       </c>
       <c r="D33" t="n">
-        <v>-5.602784958995644</v>
+        <v>-0.4347558316336624</v>
       </c>
       <c r="E33" t="n">
-        <v>1.5765037074326507</v>
+        <v>5.445441296168372</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3481808302336689</v>
+        <v>2.1533344230742735</v>
       </c>
     </row>
     <row r="34">
@@ -1215,19 +1176,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="2">
-        <v>43295.125</v>
+        <v>43296.125</v>
       </c>
       <c r="C34" t="n">
-        <v>1.8761369567360537</v>
+        <v>4.942450138500133</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.679311191089536</v>
+        <v>1.3785243812278474</v>
       </c>
       <c r="E34" t="n">
-        <v>4.299253794774595</v>
+        <v>9.060831999235173</v>
       </c>
       <c r="F34" t="n">
-        <v>2.2019330480337658</v>
+        <v>4.907779444565294</v>
       </c>
     </row>
     <row r="35">
@@ -1235,19 +1196,19 @@
         <v>38</v>
       </c>
       <c r="B35" t="n" s="2">
-        <v>43295.25</v>
+        <v>43296.25</v>
       </c>
       <c r="C35" t="n">
-        <v>3.0769634884342154</v>
+        <v>6.442539529823039</v>
       </c>
       <c r="D35" t="n">
-        <v>-2.8485721112722513</v>
+        <v>2.0016129680167993</v>
       </c>
       <c r="E35" t="n">
-        <v>6.3544611903926524</v>
+        <v>9.980913709448792</v>
       </c>
       <c r="F35" t="n">
-        <v>3.236340278821665</v>
+        <v>6.177999080133552</v>
       </c>
     </row>
     <row r="36">
@@ -1255,19 +1216,19 @@
         <v>39</v>
       </c>
       <c r="B36" t="n" s="2">
-        <v>43295.375</v>
+        <v>43296.375</v>
       </c>
       <c r="C36" t="n">
-        <v>2.1505012339528213</v>
+        <v>6.1266605801069405</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.1285412382529962</v>
+        <v>2.0480243582440054</v>
       </c>
       <c r="E36" t="n">
-        <v>5.6960904464504525</v>
+        <v>9.616043151783904</v>
       </c>
       <c r="F36" t="n">
-        <v>2.19793661163777</v>
+        <v>5.869788398311716</v>
       </c>
     </row>
     <row r="37">
@@ -1275,19 +1236,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="n" s="2">
-        <v>43295.5</v>
+        <v>43296.5</v>
       </c>
       <c r="C37" t="n">
-        <v>0.38408718215965215</v>
+        <v>4.576568388416445</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.225720934774206</v>
+        <v>1.4240806065747857</v>
       </c>
       <c r="E37" t="n">
-        <v>2.9584117618041135</v>
+        <v>8.525740604612402</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3775266695110638</v>
+        <v>4.691665033043945</v>
       </c>
     </row>
     <row r="38">
@@ -1295,19 +1256,19 @@
         <v>41</v>
       </c>
       <c r="B38" t="n" s="2">
-        <v>43295.625</v>
+        <v>43296.625</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.8638732844978135</v>
+        <v>3.1893995199503893</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.989934110092263</v>
+        <v>0.18413215902166413</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8319426111565078</v>
+        <v>7.7294445755062435</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.2703551300204573</v>
+        <v>2.9411088881588716</v>
       </c>
     </row>
     <row r="39">
@@ -1315,19 +1276,19 @@
         <v>42</v>
       </c>
       <c r="B39" t="n" s="2">
-        <v>43295.75</v>
+        <v>43296.75</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.1272861117759871</v>
+        <v>2.813796585205171</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.242574967822364</v>
+        <v>0.24456436820625815</v>
       </c>
       <c r="E39" t="n">
-        <v>0.42145841592755795</v>
+        <v>7.759888107058665</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.47263083163938296</v>
+        <v>2.696462807053476</v>
       </c>
     </row>
     <row r="40">
@@ -1335,19 +1296,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="n" s="2">
-        <v>43295.875</v>
+        <v>43296.875</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.15628459038211318</v>
+        <v>3.7738477478778076</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.057157502820366</v>
+        <v>1.3222944356907242</v>
       </c>
       <c r="E40" t="n">
-        <v>1.255234415931194</v>
+        <v>8.166404768429944</v>
       </c>
       <c r="F40" t="n">
-        <v>0.10561319070877796</v>
+        <v>4.062229004061224</v>
       </c>
     </row>
     <row r="41">
@@ -1355,19 +1316,19 @@
         <v>44</v>
       </c>
       <c r="B41" t="n" s="2">
-        <v>43296.0</v>
+        <v>43297.0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.8215678791314955</v>
+        <v>5.736152640386813</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1874699783028042</v>
+        <v>2.377463234273086</v>
       </c>
       <c r="E41" t="n">
-        <v>3.7304800420669424</v>
+        <v>9.697248682423757</v>
       </c>
       <c r="F41" t="n">
-        <v>2.148376346665337</v>
+        <v>5.967709811217497</v>
       </c>
     </row>
     <row r="42">
@@ -1375,19 +1336,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="n" s="2">
-        <v>43296.125</v>
+        <v>43297.125</v>
       </c>
       <c r="C42" t="n">
-        <v>4.651049364458921</v>
+        <v>8.021354211606713</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5050375443586731</v>
+        <v>3.5840212130455193</v>
       </c>
       <c r="E42" t="n">
-        <v>7.594573531279516</v>
+        <v>10.952848003486102</v>
       </c>
       <c r="F42" t="n">
-        <v>4.9358094172109155</v>
+        <v>8.277987772610725</v>
       </c>
     </row>
   </sheetData>
@@ -1420,101 +1381,101 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>43286.75</v>
+        <v>43288.75</v>
       </c>
       <c r="C2" t="n">
-        <v>2.8082685950870045</v>
+        <v>-0.8196941803281248</v>
       </c>
       <c r="D2" t="n">
-        <v>5.65884</v>
+        <v>3.60108</v>
       </c>
       <c r="E2" t="n">
-        <v>100.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>43286.79166666667</v>
+        <v>43288.79166666667</v>
       </c>
       <c r="C3" t="n">
-        <v>3.302343648135349</v>
+        <v>-0.3774642092379795</v>
       </c>
       <c r="D3" t="n">
-        <v>3.60108</v>
+        <v>5.1444</v>
       </c>
       <c r="E3" t="n">
-        <v>220.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>43286.83333333333</v>
+        <v>43288.83333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>3.8160174118701975</v>
+        <v>-0.3904266890005586</v>
       </c>
       <c r="D4" t="n">
-        <v>2.05776</v>
+        <v>4.11552</v>
       </c>
       <c r="E4" t="n">
-        <v>190.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B5" t="n" s="4">
-        <v>43286.875</v>
+        <v>43288.875</v>
       </c>
       <c r="C5" t="n">
-        <v>4.103113050380201</v>
+        <v>-0.2234863000862593</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n" s="4">
-        <v>43286.91666666667</v>
+        <v>43288.91666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>4.942859827694253</v>
+        <v>-0.06563559233297225</v>
       </c>
       <c r="D6" t="n">
-        <v>3.08664</v>
+        <v>3.60108</v>
       </c>
       <c r="E6" t="n">
-        <v>130.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B7" t="n" s="4">
-        <v>43286.95833333333</v>
+        <v>43288.95833333333</v>
       </c>
       <c r="C7" t="n">
-        <v>5.540721329356486</v>
+        <v>0.2588118461281594</v>
       </c>
       <c r="D7" t="n">
-        <v>1.54332</v>
+        <v>2.5722</v>
       </c>
       <c r="E7" t="n">
         <v>150.0</v>
@@ -1522,356 +1483,356 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B8" t="n" s="4">
-        <v>43287.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.329041177615746</v>
+        <v>0.7053757404256724</v>
       </c>
       <c r="D8" t="n">
         <v>2.05776</v>
       </c>
       <c r="E8" t="n">
-        <v>90.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n" s="4">
-        <v>43287.04166666667</v>
+        <v>43289.04166666667</v>
       </c>
       <c r="C9" t="n">
-        <v>5.198398286898886</v>
+        <v>0.941385689711667</v>
       </c>
       <c r="D9" t="n">
-        <v>3.60108</v>
+        <v>1.54332</v>
       </c>
       <c r="E9" t="n">
-        <v>220.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" t="n" s="4">
-        <v>43287.08333333333</v>
+        <v>43289.08333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>3.880335626736883</v>
+        <v>0.5472821538001988</v>
       </c>
       <c r="D10" t="n">
-        <v>3.60108</v>
+        <v>6.17328</v>
       </c>
       <c r="E10" t="n">
-        <v>270.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n" s="4">
-        <v>43287.125</v>
+        <v>43289.125</v>
       </c>
       <c r="C11" t="n">
-        <v>2.3849934585187955</v>
+        <v>0.47357526293279584</v>
       </c>
       <c r="D11" t="n">
         <v>2.05776</v>
       </c>
       <c r="E11" t="n">
-        <v>310.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B12" t="n" s="4">
-        <v>43287.16666666667</v>
+        <v>43289.16666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5527333094730977</v>
+        <v>0.5194005036591371</v>
       </c>
       <c r="D12" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>270.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n" s="4">
-        <v>43287.20833333333</v>
+        <v>43289.20833333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9860293091883161</v>
+        <v>0.7068698141358996</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>2.5722</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n" s="4">
-        <v>43287.25</v>
+        <v>43289.25</v>
       </c>
       <c r="C14" t="n">
-        <v>0.25335211628271703</v>
+        <v>0.6858152710136785</v>
       </c>
       <c r="D14" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>320.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B15" t="n" s="4">
-        <v>43287.29166666667</v>
+        <v>43289.29166666667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06056302087959241</v>
+        <v>0.30085224634621927</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>1.54332</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n" s="4">
-        <v>43287.33333333333</v>
+        <v>43289.33333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.11267002974514602</v>
+        <v>0.19173782364522002</v>
       </c>
       <c r="D16" t="n">
         <v>2.05776</v>
       </c>
       <c r="E16" t="n">
-        <v>280.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B17" t="n" s="4">
-        <v>43287.375</v>
+        <v>43289.375</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.22125028759314913</v>
+        <v>0.07442061441187516</v>
       </c>
       <c r="D17" t="n">
         <v>2.05776</v>
       </c>
       <c r="E17" t="n">
-        <v>310.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B18" t="n" s="4">
-        <v>43287.41666666667</v>
+        <v>43289.41666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.497662012202556</v>
+        <v>-0.09518941758025667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>2.05776</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n" s="4">
-        <v>43287.45833333333</v>
+        <v>43289.45833333333</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7053647426807577</v>
+        <v>-0.3177914396669861</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>2.05776</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B20" t="n" s="4">
-        <v>43287.5</v>
+        <v>43289.5</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.134298602682613</v>
+        <v>-0.5987898132524034</v>
       </c>
       <c r="D20" t="n">
-        <v>2.5722</v>
+        <v>1.54332</v>
       </c>
       <c r="E20" t="n">
-        <v>20.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n" s="4">
-        <v>43287.54166666667</v>
+        <v>43289.54166666667</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.7461878746560755</v>
+        <v>-0.8366987330685057</v>
       </c>
       <c r="D21" t="n">
-        <v>4.6299600000000005</v>
+        <v>2.5722</v>
       </c>
       <c r="E21" t="n">
-        <v>50.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n" s="4">
-        <v>43287.58333333333</v>
+        <v>43289.58333333333</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.8769472051095564</v>
+        <v>-0.5743879822049311</v>
       </c>
       <c r="D22" t="n">
-        <v>3.08664</v>
+        <v>2.5722</v>
       </c>
       <c r="E22" t="n">
-        <v>30.0</v>
+        <v>310.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="4">
-        <v>43287.625</v>
+        <v>43289.625</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.7051464488567465</v>
+        <v>-0.7545039904083692</v>
       </c>
       <c r="D23" t="n">
-        <v>1.54332</v>
-      </c>
-      <c r="E23" t="e">
-        <v>#N/A</v>
+        <v>2.5722</v>
+      </c>
+      <c r="E23" t="n">
+        <v>30.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B24" t="n" s="4">
-        <v>43287.66666666667</v>
+        <v>43289.66666666667</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.2246235386449602</v>
+        <v>-1.3602038120563953</v>
       </c>
       <c r="D24" t="n">
-        <v>2.05776</v>
+        <v>4.11552</v>
       </c>
       <c r="E24" t="n">
-        <v>120.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n" s="4">
-        <v>43287.70833333333</v>
+        <v>43289.70833333333</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.2246235386449602</v>
+        <v>-2.410514552456785</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B26" t="n" s="4">
-        <v>43287.75</v>
+        <v>43289.75</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.47894261600922167</v>
+        <v>-2.690294465486924</v>
       </c>
       <c r="D26" t="n">
-        <v>3.08664</v>
+        <v>3.60108</v>
       </c>
       <c r="E26" t="n">
-        <v>120.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n" s="4">
-        <v>43287.79166666667</v>
+        <v>43289.79166666667</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.3696479100975549</v>
+        <v>-2.6453010612840573</v>
       </c>
       <c r="D27" t="n">
-        <v>4.6299600000000005</v>
+        <v>4.11552</v>
       </c>
       <c r="E27" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B28" t="n" s="4">
-        <v>43287.83333333333</v>
+        <v>43289.83333333333</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1486574173985048</v>
+        <v>-2.450313002362104</v>
       </c>
       <c r="D28" t="n">
-        <v>5.65884</v>
+        <v>4.11552</v>
       </c>
       <c r="E28" t="n">
         <v>80.0</v>
@@ -1879,846 +1840,846 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B29" t="n" s="4">
-        <v>43287.875</v>
+        <v>43289.875</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.14778186817696193</v>
+        <v>-2.2866484651528767</v>
       </c>
       <c r="D29" t="n">
-        <v>2.05776</v>
+        <v>3.60108</v>
       </c>
       <c r="E29" t="n">
-        <v>300.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30" t="n" s="4">
-        <v>43287.91666666667</v>
+        <v>43289.91666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.08974394172161966</v>
+        <v>-1.975904527818524</v>
       </c>
       <c r="D30" t="n">
-        <v>2.5722</v>
+        <v>4.11552</v>
       </c>
       <c r="E30" t="n">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B31" t="n" s="4">
-        <v>43287.95833333333</v>
+        <v>43289.95833333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.252825552275733</v>
+        <v>-1.4035059794947733</v>
       </c>
       <c r="D31" t="n">
-        <v>3.60108</v>
+        <v>4.11552</v>
       </c>
       <c r="E31" t="n">
-        <v>170.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n" s="4">
-        <v>43288.0</v>
+        <v>43290.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7909191810982366</v>
+        <v>-1.1705499498874674</v>
       </c>
       <c r="D32" t="n">
-        <v>2.05776</v>
+        <v>2.5722</v>
       </c>
       <c r="E32" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B33" t="n" s="4">
-        <v>43288.04166666667</v>
+        <v>43290.04166666667</v>
       </c>
       <c r="C33" t="n">
-        <v>1.586882431010343</v>
+        <v>-0.7110103797684162</v>
       </c>
       <c r="D33" t="n">
         <v>3.08664</v>
       </c>
       <c r="E33" t="n">
-        <v>200.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B34" t="n" s="4">
-        <v>43288.08333333333</v>
+        <v>43290.08333333333</v>
       </c>
       <c r="C34" t="n">
-        <v>2.7082868985304915</v>
+        <v>-0.3053134549939031</v>
       </c>
       <c r="D34" t="n">
-        <v>3.60108</v>
+        <v>2.5722</v>
       </c>
       <c r="E34" t="n">
-        <v>200.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35" t="n" s="4">
-        <v>43288.125</v>
+        <v>43290.125</v>
       </c>
       <c r="C35" t="n">
-        <v>2.4178116375359617</v>
+        <v>-0.18961375343447184</v>
       </c>
       <c r="D35" t="n">
         <v>1.54332</v>
       </c>
       <c r="E35" t="n">
-        <v>240.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B36" t="n" s="4">
-        <v>43288.16666666667</v>
+        <v>43290.16666666667</v>
       </c>
       <c r="C36" t="n">
-        <v>2.3073204178661957</v>
+        <v>0.01439624545053969</v>
       </c>
       <c r="D36" t="n">
         <v>1.54332</v>
       </c>
       <c r="E36" t="n">
-        <v>200.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B37" t="n" s="4">
-        <v>43288.20833333333</v>
+        <v>43290.20833333333</v>
       </c>
       <c r="C37" t="n">
-        <v>2.5314181875952886</v>
+        <v>0.24711624984183972</v>
       </c>
       <c r="D37" t="n">
-        <v>3.08664</v>
+        <v>1.54332</v>
       </c>
       <c r="E37" t="n">
-        <v>230.0</v>
+        <v>340.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n" s="4">
-        <v>43288.25</v>
+        <v>43290.25</v>
       </c>
       <c r="C38" t="n">
-        <v>1.7505354982620576</v>
+        <v>0.3986755510131561</v>
       </c>
       <c r="D38" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E38" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B39" t="n" s="4">
-        <v>43288.29166666667</v>
+        <v>43290.29166666667</v>
       </c>
       <c r="C39" t="n">
-        <v>1.2853564334112293</v>
+        <v>0.2875854269146626</v>
       </c>
       <c r="D39" t="n">
         <v>1.54332</v>
       </c>
       <c r="E39" t="n">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n" s="4">
-        <v>43288.33333333333</v>
+        <v>43290.33333333333</v>
       </c>
       <c r="C40" t="n">
-        <v>1.234621006010478</v>
+        <v>0.19701765973685337</v>
       </c>
       <c r="D40" t="n">
-        <v>1.54332</v>
+        <v>0.0</v>
       </c>
       <c r="E40" t="n">
-        <v>220.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B41" t="n" s="4">
-        <v>43288.375</v>
+        <v>43290.375</v>
       </c>
       <c r="C41" t="n">
-        <v>1.5272115251081233</v>
+        <v>-0.04906939514182484</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>1.54332</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B42" t="n" s="4">
-        <v>43288.41666666667</v>
+        <v>43290.41666666667</v>
       </c>
       <c r="C42" t="n">
-        <v>1.1358560911407354</v>
+        <v>-0.12385072019770618</v>
       </c>
       <c r="D42" t="n">
         <v>1.54332</v>
       </c>
       <c r="E42" t="n">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B43" t="n" s="4">
-        <v>43288.45833333333</v>
+        <v>43290.45833333333</v>
       </c>
       <c r="C43" t="n">
-        <v>0.40857991872596866</v>
+        <v>-0.2127884221934418</v>
       </c>
       <c r="D43" t="n">
-        <v>1.54332</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>280.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n" s="4">
-        <v>43288.5</v>
+        <v>43290.5</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09840576850927756</v>
+        <v>-0.5274919447850626</v>
       </c>
       <c r="D44" t="n">
-        <v>2.05776</v>
+        <v>2.5722</v>
       </c>
       <c r="E44" t="n">
-        <v>280.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B45" t="n" s="4">
-        <v>43288.54166666667</v>
+        <v>43290.54166666667</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.14961764124043883</v>
+        <v>-0.9021903706156789</v>
       </c>
       <c r="D45" t="n">
         <v>2.05776</v>
       </c>
       <c r="E45" t="n">
-        <v>310.0</v>
+        <v>320.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" t="n" s="4">
-        <v>43288.58333333333</v>
+        <v>43290.58333333333</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.6042590660403986</v>
+        <v>-1.2952924618808626</v>
       </c>
       <c r="D46" t="n">
-        <v>1.54332</v>
+        <v>2.05776</v>
       </c>
       <c r="E46" t="n">
-        <v>340.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n" s="4">
-        <v>43288.625</v>
+        <v>43290.625</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.6127302143159503</v>
+        <v>-1.5558206004577293</v>
       </c>
       <c r="D47" t="n">
-        <v>2.05776</v>
+        <v>2.5722</v>
       </c>
       <c r="E47" t="n">
-        <v>70.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n" s="4">
-        <v>43288.66666666667</v>
+        <v>43290.66666666667</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.8716264644197685</v>
+        <v>-1.7683953874736125</v>
       </c>
       <c r="D48" t="n">
-        <v>3.60108</v>
-      </c>
-      <c r="E48" t="n">
-        <v>60.0</v>
+        <v>1.54332</v>
+      </c>
+      <c r="E48" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B49" t="n" s="4">
-        <v>43288.70833333333</v>
+        <v>43290.70833333333</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.0075933605615015</v>
+        <v>-2.776607836471467</v>
       </c>
       <c r="D49" t="n">
-        <v>4.11552</v>
+        <v>6.6877200000000006</v>
       </c>
       <c r="E49" t="n">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B50" t="n" s="4">
-        <v>43288.75</v>
+        <v>43290.75</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.8196941803281248</v>
+        <v>-4.003432681917642</v>
       </c>
       <c r="D50" t="n">
-        <v>3.60108</v>
+        <v>5.1444</v>
       </c>
       <c r="E50" t="n">
-        <v>70.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B51" t="n" s="4">
-        <v>43288.79166666667</v>
+        <v>43290.79166666667</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3774642092379795</v>
+        <v>-4.7895141545962545</v>
       </c>
       <c r="D51" t="n">
-        <v>5.1444</v>
+        <v>4.11552</v>
       </c>
       <c r="E51" t="n">
-        <v>90.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B52" t="n" s="4">
-        <v>43288.83333333333</v>
+        <v>43290.83333333333</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3904266890005586</v>
+        <v>-6.0850859927383</v>
       </c>
       <c r="D52" t="n">
-        <v>4.11552</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E52" t="n">
-        <v>80.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B53" t="n" s="4">
-        <v>43288.875</v>
+        <v>43290.875</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2234863000862593</v>
+        <v>-6.902935854840294</v>
       </c>
       <c r="D53" t="n">
-        <v>4.6299600000000005</v>
+        <v>5.65884</v>
       </c>
       <c r="E53" t="n">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B54" t="n" s="4">
-        <v>43288.91666666667</v>
+        <v>43290.91666666667</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.06563559233297225</v>
+        <v>-7.893593630391529</v>
       </c>
       <c r="D54" t="n">
-        <v>3.60108</v>
+        <v>4.11552</v>
       </c>
       <c r="E54" t="n">
-        <v>110.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B55" t="n" s="4">
-        <v>43288.95833333333</v>
+        <v>43290.95833333333</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2588118461281594</v>
+        <v>-8.93863225749005</v>
       </c>
       <c r="D55" t="n">
-        <v>2.5722</v>
+        <v>5.65884</v>
       </c>
       <c r="E55" t="n">
-        <v>150.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B56" t="n" s="4">
-        <v>43289.0</v>
+        <v>43291.0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7053757404256724</v>
+        <v>-9.341256083818315</v>
       </c>
       <c r="D56" t="n">
-        <v>2.05776</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E56" t="n">
-        <v>190.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B57" t="n" s="4">
-        <v>43289.04166666667</v>
+        <v>43291.04166666667</v>
       </c>
       <c r="C57" t="n">
-        <v>0.941385689711667</v>
+        <v>-10.026764391047529</v>
       </c>
       <c r="D57" t="n">
-        <v>1.54332</v>
+        <v>5.1444</v>
       </c>
       <c r="E57" t="n">
-        <v>260.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B58" t="n" s="4">
-        <v>43289.08333333333</v>
+        <v>43291.08333333333</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5472821538001988</v>
+        <v>-10.453262836986735</v>
       </c>
       <c r="D58" t="n">
-        <v>6.17328</v>
+        <v>2.5722</v>
       </c>
       <c r="E58" t="n">
-        <v>290.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B59" t="n" s="4">
-        <v>43289.125</v>
+        <v>43291.125</v>
       </c>
       <c r="C59" t="n">
-        <v>0.47357526293279584</v>
+        <v>-10.915449823517474</v>
       </c>
       <c r="D59" t="n">
-        <v>2.05776</v>
+        <v>3.08664</v>
       </c>
       <c r="E59" t="n">
-        <v>260.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B60" t="n" s="4">
-        <v>43289.16666666667</v>
+        <v>43291.16666666667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5194005036591371</v>
+        <v>-11.016332567637203</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>4.11552</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B61" t="n" s="4">
-        <v>43289.20833333333</v>
+        <v>43291.20833333333</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7068698141358996</v>
+        <v>-9.758091670842038</v>
       </c>
       <c r="D61" t="n">
         <v>2.5722</v>
       </c>
       <c r="E61" t="n">
-        <v>220.0</v>
+        <v>360.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B62" t="n" s="4">
-        <v>43289.25</v>
+        <v>43291.25</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6858152710136785</v>
+        <v>-8.408549751389168</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>1.54332</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0</v>
+        <v>280.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63" t="n" s="4">
-        <v>43289.29166666667</v>
+        <v>43291.29166666667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.30085224634621927</v>
+        <v>-7.69656608792771</v>
       </c>
       <c r="D63" t="n">
-        <v>1.54332</v>
+        <v>2.05776</v>
       </c>
       <c r="E63" t="n">
-        <v>280.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B64" t="n" s="4">
-        <v>43289.33333333333</v>
+        <v>43291.33333333333</v>
       </c>
       <c r="C64" t="n">
-        <v>0.19173782364522002</v>
+        <v>-7.231351900798672</v>
       </c>
       <c r="D64" t="n">
-        <v>2.05776</v>
+        <v>2.5722</v>
       </c>
       <c r="E64" t="n">
-        <v>250.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B65" t="n" s="4">
-        <v>43289.375</v>
+        <v>43291.375</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07442061441187516</v>
+        <v>-6.137500264022065</v>
       </c>
       <c r="D65" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E65" t="n">
-        <v>230.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B66" t="n" s="4">
-        <v>43289.41666666667</v>
+        <v>43291.41666666667</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.09518941758025667</v>
+        <v>-5.605578061240453</v>
       </c>
       <c r="D66" t="n">
         <v>2.05776</v>
       </c>
       <c r="E66" t="n">
-        <v>250.0</v>
+        <v>290.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B67" t="n" s="4">
-        <v>43289.45833333333</v>
+        <v>43291.45833333333</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.3177914396669861</v>
+        <v>-5.406075761647727</v>
       </c>
       <c r="D67" t="n">
         <v>2.05776</v>
       </c>
       <c r="E67" t="n">
-        <v>280.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68" t="n" s="4">
-        <v>43289.5</v>
+        <v>43291.5</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.5987898132524034</v>
+        <v>-5.1661772373400945</v>
       </c>
       <c r="D68" t="n">
-        <v>1.54332</v>
+        <v>2.05776</v>
       </c>
       <c r="E68" t="n">
-        <v>270.0</v>
+        <v>330.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B69" t="n" s="4">
-        <v>43289.54166666667</v>
+        <v>43291.54166666667</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.8366987330685057</v>
+        <v>-4.603180703641922</v>
       </c>
       <c r="D69" t="n">
         <v>2.5722</v>
       </c>
       <c r="E69" t="n">
-        <v>300.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B70" t="n" s="4">
-        <v>43289.58333333333</v>
+        <v>43291.58333333333</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.5743879822049311</v>
+        <v>-4.173568181709867</v>
       </c>
       <c r="D70" t="n">
-        <v>2.5722</v>
+        <v>2.05776</v>
       </c>
       <c r="E70" t="n">
-        <v>310.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B71" t="n" s="4">
-        <v>43289.625</v>
+        <v>43291.625</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.7545039904083692</v>
+        <v>-3.388608046055338</v>
       </c>
       <c r="D71" t="n">
-        <v>2.5722</v>
+        <v>3.08664</v>
       </c>
       <c r="E71" t="n">
-        <v>30.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B72" t="n" s="4">
-        <v>43289.66666666667</v>
+        <v>43291.66666666667</v>
       </c>
       <c r="C72" t="n">
-        <v>-1.3602038120563953</v>
+        <v>-2.8738137018298766</v>
       </c>
       <c r="D72" t="n">
-        <v>4.11552</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10.0</v>
+        <v>2.05776</v>
+      </c>
+      <c r="E72" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B73" t="n" s="4">
-        <v>43289.70833333333</v>
+        <v>43291.70833333333</v>
       </c>
       <c r="C73" t="n">
-        <v>-2.410514552456785</v>
+        <v>-2.4976044915894953</v>
       </c>
       <c r="D73" t="n">
-        <v>4.6299600000000005</v>
+        <v>3.08664</v>
       </c>
       <c r="E73" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B74" t="n" s="4">
-        <v>43289.75</v>
+        <v>43291.75</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.690294465486924</v>
+        <v>-1.6826085544680713</v>
       </c>
       <c r="D74" t="n">
-        <v>3.60108</v>
+        <v>4.11552</v>
       </c>
       <c r="E74" t="n">
-        <v>50.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B75" t="n" s="4">
-        <v>43289.79166666667</v>
+        <v>43291.79166666667</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.6453010612840573</v>
+        <v>-0.9998132071555865</v>
       </c>
       <c r="D75" t="n">
-        <v>4.11552</v>
+        <v>3.60108</v>
       </c>
       <c r="E75" t="n">
-        <v>60.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B76" t="n" s="4">
-        <v>43289.83333333333</v>
+        <v>43291.83333333333</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.450313002362104</v>
+        <v>-0.577971445471507</v>
       </c>
       <c r="D76" t="n">
-        <v>4.11552</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E76" t="n">
-        <v>80.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B77" t="n" s="4">
-        <v>43289.875</v>
+        <v>43291.875</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.2866484651528767</v>
+        <v>-0.43859778722602577</v>
       </c>
       <c r="D77" t="n">
-        <v>3.60108</v>
+        <v>4.11552</v>
       </c>
       <c r="E77" t="n">
-        <v>90.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B78" t="n" s="4">
-        <v>43289.91666666667</v>
+        <v>43291.91666666667</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.975904527818524</v>
+        <v>-0.17077210589141478</v>
       </c>
       <c r="D78" t="n">
         <v>4.11552</v>
@@ -2729,217 +2690,217 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B79" t="n" s="4">
-        <v>43289.95833333333</v>
+        <v>43291.95833333333</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.4035059794947733</v>
+        <v>0.1988504799504594</v>
       </c>
       <c r="D79" t="n">
-        <v>4.11552</v>
+        <v>4.6299600000000005</v>
       </c>
       <c r="E79" t="n">
-        <v>90.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B80" t="n" s="4">
-        <v>43290.0</v>
+        <v>43292.0</v>
       </c>
       <c r="C80" t="n">
-        <v>-1.1705499498874674</v>
+        <v>1.1331297974518604</v>
       </c>
       <c r="D80" t="n">
-        <v>2.5722</v>
+        <v>5.1444</v>
       </c>
       <c r="E80" t="n">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B81" t="n" s="4">
-        <v>43290.04166666667</v>
+        <v>43292.04166666667</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.7110103797684162</v>
+        <v>1.8493803364911043</v>
       </c>
       <c r="D81" t="n">
-        <v>3.08664</v>
+        <v>3.60108</v>
       </c>
       <c r="E81" t="n">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B82" t="n" s="4">
-        <v>43290.08333333333</v>
+        <v>43292.08333333333</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3053134549939031</v>
+        <v>2.5925515244559207</v>
       </c>
       <c r="D82" t="n">
-        <v>2.5722</v>
+        <v>3.08664</v>
       </c>
       <c r="E82" t="n">
-        <v>90.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B83" t="n" s="4">
-        <v>43290.125</v>
+        <v>43292.125</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.18961375343447184</v>
+        <v>3.2022452045746905</v>
       </c>
       <c r="D83" t="n">
-        <v>1.54332</v>
+        <v>3.60108</v>
       </c>
       <c r="E83" t="n">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B84" t="n" s="4">
-        <v>43290.16666666667</v>
+        <v>43292.16666666667</v>
       </c>
       <c r="C84" t="n">
-        <v>0.01439624545053969</v>
+        <v>3.1272073562132774</v>
       </c>
       <c r="D84" t="n">
-        <v>1.54332</v>
+        <v>3.08664</v>
       </c>
       <c r="E84" t="n">
-        <v>70.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B85" t="n" s="4">
-        <v>43290.20833333333</v>
+        <v>43292.20833333333</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24711624984183972</v>
+        <v>3.8987242503267803</v>
       </c>
       <c r="D85" t="n">
-        <v>1.54332</v>
+        <v>2.5722</v>
       </c>
       <c r="E85" t="n">
-        <v>340.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B86" t="n" s="4">
-        <v>43290.25</v>
+        <v>43292.25</v>
       </c>
       <c r="C86" t="n">
-        <v>0.3986755510131561</v>
+        <v>3.5606733398824506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0</v>
+        <v>1.54332</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" t="n" s="4">
-        <v>43290.29166666667</v>
+        <v>43292.29166666667</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2875854269146626</v>
+        <v>3.4484684461963133</v>
       </c>
       <c r="D87" t="n">
         <v>1.54332</v>
       </c>
       <c r="E87" t="n">
-        <v>320.0</v>
+        <v>210.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B88" t="n" s="4">
-        <v>43290.33333333333</v>
+        <v>43292.33333333333</v>
       </c>
       <c r="C88" t="n">
-        <v>0.19701765973685337</v>
+        <v>3.6376209520693785</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0</v>
+        <v>1.54332</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0</v>
+        <v>220.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B89" t="n" s="4">
-        <v>43290.375</v>
+        <v>43292.375</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.04906939514182484</v>
+        <v>3.250854223860848</v>
       </c>
       <c r="D89" t="n">
         <v>1.54332</v>
       </c>
       <c r="E89" t="n">
-        <v>300.0</v>
+        <v>270.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B90" t="n" s="4">
-        <v>43290.41666666667</v>
+        <v>43292.41666666667</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.12385072019770618</v>
+        <v>2.8651880493949076</v>
       </c>
       <c r="D90" t="n">
-        <v>1.54332</v>
+        <v>0.0</v>
       </c>
       <c r="E90" t="n">
-        <v>260.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B91" t="n" s="4">
-        <v>43290.45833333333</v>
+        <v>43292.45833333333</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.2127884221934418</v>
+        <v>2.274702561020816</v>
       </c>
       <c r="D91" t="n">
         <v>0.0</v>
@@ -2950,410 +2911,138 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B92" t="n" s="4">
-        <v>43290.5</v>
+        <v>43292.5</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5274919447850626</v>
+        <v>1.4196488567276166</v>
       </c>
       <c r="D92" t="n">
-        <v>2.5722</v>
+        <v>0.0</v>
       </c>
       <c r="E92" t="n">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B93" t="n" s="4">
-        <v>43290.54166666667</v>
+        <v>43292.54166666667</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.9021903706156789</v>
+        <v>1.1475617309592219</v>
       </c>
       <c r="D93" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E93" t="n">
-        <v>320.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B94" t="n" s="4">
-        <v>43290.58333333333</v>
+        <v>43292.58333333333</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.2952924618808626</v>
+        <v>0.7329126867581925</v>
       </c>
       <c r="D94" t="n">
-        <v>2.05776</v>
+        <v>0.0</v>
       </c>
       <c r="E94" t="n">
-        <v>290.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B95" t="n" s="4">
-        <v>43290.625</v>
+        <v>43292.625</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.5558206004577293</v>
+        <v>0.5833006054977472</v>
       </c>
       <c r="D95" t="n">
         <v>2.5722</v>
       </c>
       <c r="E95" t="n">
-        <v>280.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B96" t="n" s="4">
-        <v>43290.66666666667</v>
+        <v>43292.66666666667</v>
       </c>
       <c r="C96" t="n">
-        <v>-1.7683953874736125</v>
+        <v>0.36381388858783437</v>
       </c>
       <c r="D96" t="n">
-        <v>1.54332</v>
-      </c>
-      <c r="E96" t="e">
-        <v>#N/A</v>
+        <v>4.11552</v>
+      </c>
+      <c r="E96" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B97" t="n" s="4">
-        <v>43290.70833333333</v>
+        <v>43292.70833333333</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.776607836471467</v>
+        <v>-0.058444663452591014</v>
       </c>
       <c r="D97" t="n">
-        <v>6.6877200000000006</v>
+        <v>5.1444</v>
       </c>
       <c r="E97" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B98" t="n" s="4">
-        <v>43290.75</v>
+        <v>43292.75</v>
       </c>
       <c r="C98" t="n">
-        <v>-4.003432681917642</v>
+        <v>-0.11066769526039416</v>
       </c>
       <c r="D98" t="n">
-        <v>5.1444</v>
+        <v>5.65884</v>
       </c>
       <c r="E98" t="n">
-        <v>10.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B99" t="n" s="4">
-        <v>43290.79166666667</v>
+        <v>43292.79166666667</v>
       </c>
       <c r="C99" t="n">
-        <v>-4.7895141545962545</v>
+        <v>-0.14193199988070893</v>
       </c>
       <c r="D99" t="n">
-        <v>4.11552</v>
+        <v>6.17328</v>
       </c>
       <c r="E99" t="n">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>145</v>
-      </c>
-      <c r="B100" t="n" s="4">
-        <v>43290.83333333333</v>
-      </c>
-      <c r="C100" t="n">
-        <v>-6.0850859927383</v>
-      </c>
-      <c r="D100" t="n">
-        <v>4.6299600000000005</v>
-      </c>
-      <c r="E100" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" t="n" s="4">
-        <v>43290.875</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-6.902935854840294</v>
-      </c>
-      <c r="D101" t="n">
-        <v>5.65884</v>
-      </c>
-      <c r="E101" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" t="n" s="4">
-        <v>43290.91666666667</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-7.893593630391529</v>
-      </c>
-      <c r="D102" t="n">
-        <v>4.11552</v>
-      </c>
-      <c r="E102" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" t="n" s="4">
-        <v>43290.95833333333</v>
-      </c>
-      <c r="C103" t="n">
-        <v>-8.93863225749005</v>
-      </c>
-      <c r="D103" t="n">
-        <v>5.65884</v>
-      </c>
-      <c r="E103" t="n">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" t="n" s="4">
-        <v>43291.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>-9.341256083818315</v>
-      </c>
-      <c r="D104" t="n">
-        <v>4.6299600000000005</v>
-      </c>
-      <c r="E104" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>150</v>
-      </c>
-      <c r="B105" t="n" s="4">
-        <v>43291.04166666667</v>
-      </c>
-      <c r="C105" t="n">
-        <v>-10.026764391047529</v>
-      </c>
-      <c r="D105" t="n">
-        <v>5.1444</v>
-      </c>
-      <c r="E105" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" t="n" s="4">
-        <v>43291.08333333333</v>
-      </c>
-      <c r="C106" t="n">
-        <v>-10.453262836986735</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.5722</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>152</v>
-      </c>
-      <c r="B107" t="n" s="4">
-        <v>43291.125</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-10.915449823517474</v>
-      </c>
-      <c r="D107" t="n">
-        <v>3.08664</v>
-      </c>
-      <c r="E107" t="n">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>153</v>
-      </c>
-      <c r="B108" t="n" s="4">
-        <v>43291.16666666667</v>
-      </c>
-      <c r="C108" t="n">
-        <v>-11.016332567637203</v>
-      </c>
-      <c r="D108" t="n">
-        <v>4.11552</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" t="n" s="4">
-        <v>43291.20833333333</v>
-      </c>
-      <c r="C109" t="n">
-        <v>-9.758091670842038</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2.5722</v>
-      </c>
-      <c r="E109" t="n">
-        <v>360.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>155</v>
-      </c>
-      <c r="B110" t="n" s="4">
-        <v>43291.25</v>
-      </c>
-      <c r="C110" t="n">
-        <v>-8.408549751389168</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.54332</v>
-      </c>
-      <c r="E110" t="n">
-        <v>280.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" t="n" s="4">
-        <v>43291.29166666667</v>
-      </c>
-      <c r="C111" t="n">
-        <v>-7.69656608792771</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.05776</v>
-      </c>
-      <c r="E111" t="n">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>157</v>
-      </c>
-      <c r="B112" t="n" s="4">
-        <v>43291.33333333333</v>
-      </c>
-      <c r="C112" t="n">
-        <v>-7.231351900798672</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.5722</v>
-      </c>
-      <c r="E112" t="n">
-        <v>330.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>158</v>
-      </c>
-      <c r="B113" t="n" s="4">
-        <v>43291.375</v>
-      </c>
-      <c r="C113" t="n">
-        <v>-6.137500264022065</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>159</v>
-      </c>
-      <c r="B114" t="n" s="4">
-        <v>43291.41666666667</v>
-      </c>
-      <c r="C114" t="n">
-        <v>-5.605578061240453</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.05776</v>
-      </c>
-      <c r="E114" t="n">
-        <v>290.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>160</v>
-      </c>
-      <c r="B115" t="n" s="4">
-        <v>43291.45833333333</v>
-      </c>
-      <c r="C115" t="n">
-        <v>-5.406075761647727</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.05776</v>
-      </c>
-      <c r="E115" t="n">
-        <v>330.0</v>
+        <v>70.0</v>
       </c>
     </row>
   </sheetData>
